--- a/Code/Results/Cases/Case_3_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.647762347672227</v>
+        <v>0.526438280374748</v>
       </c>
       <c r="C2">
-        <v>0.3350438758343728</v>
+        <v>0.1308624274661554</v>
       </c>
       <c r="D2">
-        <v>0.03539539481483445</v>
+        <v>0.01287503673997747</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5297172493314122</v>
+        <v>0.5010524358228281</v>
       </c>
       <c r="G2">
-        <v>0.0007749011038607954</v>
+        <v>0.002381241494065362</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.810732936334261</v>
+        <v>0.8942543127321727</v>
       </c>
       <c r="N2">
-        <v>0.4747496259668793</v>
+        <v>0.9506348847387542</v>
       </c>
       <c r="O2">
-        <v>1.457398035880658</v>
+        <v>1.600791911241117</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.436786315023681</v>
+        <v>0.4610702097428714</v>
       </c>
       <c r="C3">
-        <v>0.3006173965017211</v>
+        <v>0.1191976723034145</v>
       </c>
       <c r="D3">
-        <v>0.03143220758710896</v>
+        <v>0.01153341097746363</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4770064254143023</v>
+        <v>0.491684243643391</v>
       </c>
       <c r="G3">
-        <v>0.0007790268570205424</v>
+        <v>0.002383930257053685</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.393867648078299</v>
+        <v>0.7957442636169958</v>
       </c>
       <c r="N3">
-        <v>0.5128602702580736</v>
+        <v>0.9649793628531853</v>
       </c>
       <c r="O3">
-        <v>1.329680829487529</v>
+        <v>1.582920526096558</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.307162443776093</v>
+        <v>0.4208571702748998</v>
       </c>
       <c r="C4">
-        <v>0.2793606536936295</v>
+        <v>0.1119834880409201</v>
       </c>
       <c r="D4">
-        <v>0.0289873217290193</v>
+        <v>0.01070450451419447</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4457216127397317</v>
+        <v>0.4863168043954573</v>
       </c>
       <c r="G4">
-        <v>0.0007816361255563176</v>
+        <v>0.002385669384506046</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.146595085939154</v>
+        <v>0.7357780737209509</v>
       </c>
       <c r="N4">
-        <v>0.5373189142970887</v>
+        <v>0.9742509767348864</v>
       </c>
       <c r="O4">
-        <v>1.254720026862259</v>
+        <v>1.573194046176042</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.25430804694858</v>
+        <v>0.4044517980485693</v>
       </c>
       <c r="C5">
-        <v>0.2706694391847719</v>
+        <v>0.1090308246653251</v>
       </c>
       <c r="D5">
-        <v>0.02798815251362186</v>
+        <v>0.01036545166886782</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4332220686269963</v>
+        <v>0.4842260434287695</v>
       </c>
       <c r="G5">
-        <v>0.0007827191825378457</v>
+        <v>0.002386400346174901</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.047641762896077</v>
+        <v>0.7114660064116691</v>
       </c>
       <c r="N5">
-        <v>0.5475435536761246</v>
+        <v>0.9781458140287889</v>
       </c>
       <c r="O5">
-        <v>1.224973827237818</v>
+        <v>1.569543088703767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.245529399779485</v>
+        <v>0.4017266289700387</v>
       </c>
       <c r="C6">
-        <v>0.2692245458791689</v>
+        <v>0.1085397697978863</v>
       </c>
       <c r="D6">
-        <v>0.0278220691288098</v>
+        <v>0.01030907647357537</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4311609621725907</v>
+        <v>0.4838846971401409</v>
       </c>
       <c r="G6">
-        <v>0.0007829002344182934</v>
+        <v>0.002386523067792691</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.031310215146121</v>
+        <v>0.7074363620614861</v>
       </c>
       <c r="N6">
-        <v>0.5492566598606992</v>
+        <v>0.978799586804378</v>
       </c>
       <c r="O6">
-        <v>1.220080952837748</v>
+        <v>1.568955710344113</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.306449772758754</v>
+        <v>0.4206359940837672</v>
       </c>
       <c r="C7">
-        <v>0.2792435569676712</v>
+        <v>0.1119437189925492</v>
       </c>
       <c r="D7">
-        <v>0.02897385813147935</v>
+        <v>0.01069993702296301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4455520585408124</v>
+        <v>0.4862882171652529</v>
       </c>
       <c r="G7">
-        <v>0.0007816506512508765</v>
+        <v>0.002385679152366921</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.145253682133671</v>
+        <v>0.7354496957839558</v>
       </c>
       <c r="N7">
-        <v>0.5374557755943066</v>
+        <v>0.9743030320023927</v>
       </c>
       <c r="O7">
-        <v>1.254315703436163</v>
+        <v>1.573143543212893</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.575028743108646</v>
+        <v>0.5039159299834353</v>
       </c>
       <c r="C8">
-        <v>0.3231989138804039</v>
+        <v>0.1268513516838539</v>
       </c>
       <c r="D8">
-        <v>0.0340312885249574</v>
+        <v>0.01241352705842047</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5113045255296385</v>
+        <v>0.4977423119142372</v>
       </c>
       <c r="G8">
-        <v>0.0007763082847800632</v>
+        <v>0.002382150312440795</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.664954065864833</v>
+        <v>0.8601766037815253</v>
       </c>
       <c r="N8">
-        <v>0.4876651118461712</v>
+        <v>0.9554844827540165</v>
       </c>
       <c r="O8">
-        <v>1.412600517490006</v>
+        <v>1.594370621745384</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.101543673924539</v>
+        <v>0.6665789188658664</v>
       </c>
       <c r="C9">
-        <v>0.4083964826098452</v>
+        <v>0.1556632325266776</v>
       </c>
       <c r="D9">
-        <v>0.0438561184812869</v>
+        <v>0.01573205078423001</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6499107688971435</v>
+        <v>0.5232675484836307</v>
       </c>
       <c r="G9">
-        <v>0.0007664027706662407</v>
+        <v>0.002375927017822846</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.773244580556991</v>
+        <v>1.109171365554417</v>
       </c>
       <c r="N9">
-        <v>0.3988395760551988</v>
+        <v>0.9222678589030942</v>
       </c>
       <c r="O9">
-        <v>1.75382238872723</v>
+        <v>1.64592963928547</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.488959876315903</v>
+        <v>0.7856502145729678</v>
       </c>
       <c r="C10">
-        <v>0.4702669248427753</v>
+        <v>0.1765631394149523</v>
       </c>
       <c r="D10">
-        <v>0.05101362140113963</v>
+        <v>0.01814352762990268</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7593325845334391</v>
+        <v>0.5439076343446061</v>
       </c>
       <c r="G10">
-        <v>0.00075942069154034</v>
+        <v>0.002371775023741804</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.677457455317565</v>
+        <v>1.295211018265832</v>
       </c>
       <c r="N10">
-        <v>0.3395692583896448</v>
+        <v>0.9001166180872318</v>
       </c>
       <c r="O10">
-        <v>2.028552428067485</v>
+        <v>1.689929551283853</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.665461399663116</v>
+        <v>0.8397157227526577</v>
       </c>
       <c r="C11">
-        <v>0.4982121178639147</v>
+        <v>0.186010594612469</v>
       </c>
       <c r="D11">
-        <v>0.05425451304318329</v>
+        <v>0.01923455487974479</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8111919376132306</v>
+        <v>0.5537112737428345</v>
       </c>
       <c r="G11">
-        <v>0.0007562941396160213</v>
+        <v>0.002369976470300006</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.119285730129747</v>
+        <v>1.380612776636013</v>
       </c>
       <c r="N11">
-        <v>0.3140557842775316</v>
+        <v>0.8905299617670472</v>
       </c>
       <c r="O11">
-        <v>2.160097897211017</v>
+        <v>1.71128933064179</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.732342487160395</v>
+        <v>0.8601735069462961</v>
       </c>
       <c r="C12">
-        <v>0.508759528745486</v>
+        <v>0.1895792400424341</v>
       </c>
       <c r="D12">
-        <v>0.0554792665332684</v>
+        <v>0.01964681623623221</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.83117099322466</v>
+        <v>0.5574835266775438</v>
       </c>
       <c r="G12">
-        <v>0.0007551158430717164</v>
+        <v>0.002369308304025139</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.292231109096747</v>
+        <v>1.41307062571066</v>
       </c>
       <c r="N12">
-        <v>0.3046165523676265</v>
+        <v>0.886970359768263</v>
       </c>
       <c r="O12">
-        <v>2.210985876808849</v>
+        <v>1.719572010614456</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.717936450475861</v>
+        <v>0.8557682719387003</v>
       </c>
       <c r="C13">
-        <v>0.5064896265938899</v>
+        <v>0.1888110685693505</v>
       </c>
       <c r="D13">
-        <v>0.05521561210987613</v>
+        <v>0.01955806828996742</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8268522506993037</v>
+        <v>0.5566684397977752</v>
       </c>
       <c r="G13">
-        <v>0.0007553693855887333</v>
+        <v>0.002369451632553928</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.254709680192576</v>
+        <v>1.406074881060292</v>
       </c>
       <c r="N13">
-        <v>0.3066393486683765</v>
+        <v>0.8877338382147215</v>
       </c>
       <c r="O13">
-        <v>2.199976168272002</v>
+        <v>1.717779535564603</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.670962849848422</v>
+        <v>0.8413991173916884</v>
       </c>
       <c r="C14">
-        <v>0.4990806009537039</v>
+        <v>0.1863043691544704</v>
       </c>
       <c r="D14">
-        <v>0.05435532681545396</v>
+        <v>0.01926848981325691</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8128285318221202</v>
+        <v>0.55402041883778</v>
       </c>
       <c r="G14">
-        <v>0.000756197096602812</v>
+        <v>0.002369921241409458</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.133392638483798</v>
+        <v>1.383280695875001</v>
       </c>
       <c r="N14">
-        <v>0.3132746778537197</v>
+        <v>0.8902356940071279</v>
       </c>
       <c r="O14">
-        <v>2.16426213218358</v>
+        <v>1.711966854412282</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.642195973982098</v>
+        <v>0.8325955221422987</v>
       </c>
       <c r="C15">
-        <v>0.4945376031461421</v>
+        <v>0.1847677762061153</v>
       </c>
       <c r="D15">
-        <v>0.05382803910369205</v>
+        <v>0.01909099825924443</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8042843490109988</v>
+        <v>0.5524062280578192</v>
       </c>
       <c r="G15">
-        <v>0.0007567047813868715</v>
+        <v>0.002370210569519703</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.059859588185034</v>
+        <v>1.36933418854187</v>
       </c>
       <c r="N15">
-        <v>0.3173683678732324</v>
+        <v>0.8917773601788497</v>
       </c>
       <c r="O15">
-        <v>2.142530379905395</v>
+        <v>1.708431736950303</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.477430977977065</v>
+        <v>0.782114780723191</v>
       </c>
       <c r="C16">
-        <v>0.4684361482897259</v>
+        <v>0.1759444951869114</v>
       </c>
       <c r="D16">
-        <v>0.05080149259385536</v>
+        <v>0.01807210389856095</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.75598878344951</v>
+        <v>0.543275302203952</v>
       </c>
       <c r="G16">
-        <v>0.0007596258985652011</v>
+        <v>0.002371894373051494</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.649295438999346</v>
+        <v>1.289645940334196</v>
       </c>
       <c r="N16">
-        <v>0.3412669384239102</v>
+        <v>0.900753005646731</v>
       </c>
       <c r="O16">
-        <v>2.02009849339268</v>
+        <v>1.6885607635611</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.376425806057455</v>
+        <v>0.7511198687880665</v>
       </c>
       <c r="C17">
-        <v>0.4523688828424497</v>
+        <v>0.170516133836685</v>
       </c>
       <c r="D17">
-        <v>0.04894074428504069</v>
+        <v>0.01744549653226812</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7269222449663175</v>
+        <v>0.5377800753495023</v>
       </c>
       <c r="G17">
-        <v>0.0007614296639798523</v>
+        <v>0.002372950390256193</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.406021591255339</v>
+        <v>1.240962369530763</v>
       </c>
       <c r="N17">
-        <v>0.3563085572544402</v>
+        <v>0.9063849194050526</v>
       </c>
       <c r="O17">
-        <v>1.946759768416712</v>
+        <v>1.676715455808932</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.318354954749907</v>
+        <v>0.7332830148146172</v>
       </c>
       <c r="C18">
-        <v>0.4431090640422894</v>
+        <v>0.1673882510199576</v>
       </c>
       <c r="D18">
-        <v>0.04786909691944174</v>
+        <v>0.01708452877205957</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7103971930688857</v>
+        <v>0.5346583532715101</v>
       </c>
       <c r="G18">
-        <v>0.0007624719173509598</v>
+        <v>0.002373566278302244</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.268875538541067</v>
+        <v>1.213033036409897</v>
       </c>
       <c r="N18">
-        <v>0.3650955874579438</v>
+        <v>0.9096703618656896</v>
       </c>
       <c r="O18">
-        <v>1.905186860591158</v>
+        <v>1.670028795871957</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.298697162983103</v>
+        <v>0.7272421840094694</v>
       </c>
       <c r="C19">
-        <v>0.4399708463560046</v>
+        <v>0.166328244416718</v>
       </c>
       <c r="D19">
-        <v>0.04750602403027671</v>
+        <v>0.01696221603710768</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7048341131213078</v>
+        <v>0.5336080804839298</v>
       </c>
       <c r="G19">
-        <v>0.000762825666750205</v>
+        <v>0.002373776268419558</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.222884938026453</v>
+        <v>1.203588824890176</v>
       </c>
       <c r="N19">
-        <v>0.3680935901312026</v>
+        <v>0.910790670844932</v>
       </c>
       <c r="O19">
-        <v>1.89121202587765</v>
+        <v>1.667786496948622</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.387175374009132</v>
+        <v>0.7544203115394339</v>
       </c>
       <c r="C20">
-        <v>0.4540812070054017</v>
+        <v>0.1710945771159231</v>
       </c>
       <c r="D20">
-        <v>0.04913897037364023</v>
+        <v>0.01751225810171775</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7299961444259253</v>
+        <v>0.5383610148592055</v>
       </c>
       <c r="G20">
-        <v>0.0007612371656125467</v>
+        <v>0.002372837096885726</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.431622995456792</v>
+        <v>1.246137298429446</v>
       </c>
       <c r="N20">
-        <v>0.3546932316687972</v>
+        <v>0.9057806185464372</v>
       </c>
       <c r="O20">
-        <v>1.954502829581713</v>
+        <v>1.677963315454122</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.684758919448541</v>
+        <v>0.8456201205528373</v>
       </c>
       <c r="C21">
-        <v>0.5012578167979598</v>
+        <v>0.1870408912570554</v>
       </c>
       <c r="D21">
-        <v>0.05460808473512202</v>
+        <v>0.01935357033553942</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8169380207711185</v>
+        <v>0.5547965811442879</v>
       </c>
       <c r="G21">
-        <v>0.0007559538375882822</v>
+        <v>0.002369782956091316</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.168861661421204</v>
+        <v>1.389972638835104</v>
       </c>
       <c r="N21">
-        <v>0.3113195763829459</v>
+        <v>0.8894989191855736</v>
       </c>
       <c r="O21">
-        <v>2.174721914346776</v>
+        <v>1.713668901942867</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.8795016471189</v>
+        <v>0.9051326976168639</v>
       </c>
       <c r="C22">
-        <v>0.5318827147663114</v>
+        <v>0.1974107230043387</v>
       </c>
       <c r="D22">
-        <v>0.05816761078080646</v>
+        <v>0.02055179077664349</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8757714462270201</v>
+        <v>0.5658870071409581</v>
       </c>
       <c r="G22">
-        <v>0.0007525329285604607</v>
+        <v>0.002367862099375867</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.684412400744748</v>
+        <v>1.484668914750756</v>
       </c>
       <c r="N22">
-        <v>0.2842744239943968</v>
+        <v>0.8792698202784131</v>
       </c>
       <c r="O22">
-        <v>2.324986707032934</v>
+        <v>1.738136918276723</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.775539691064921</v>
+        <v>0.8733785023368341</v>
       </c>
       <c r="C23">
-        <v>0.5155593185551766</v>
+        <v>0.191880996609342</v>
       </c>
       <c r="D23">
-        <v>0.05626933551783964</v>
+        <v>0.019912761896272</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8441714480240989</v>
+        <v>0.559935839400822</v>
       </c>
       <c r="G23">
-        <v>0.0007543563782839509</v>
+        <v>0.002368880437405971</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.405649691151538</v>
+        <v>1.434062047371782</v>
       </c>
       <c r="N23">
-        <v>0.2985849834141661</v>
+        <v>0.8846915273605269</v>
       </c>
       <c r="O23">
-        <v>2.244159239858391</v>
+        <v>1.724973959155875</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.382315499926619</v>
+        <v>0.7529282356848626</v>
       </c>
       <c r="C24">
-        <v>0.453307135015649</v>
+        <v>0.1708330848337312</v>
       </c>
       <c r="D24">
-        <v>0.04904935818683498</v>
+        <v>0.01748207744591923</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7286058591601403</v>
+        <v>0.5380982551433675</v>
       </c>
       <c r="G24">
-        <v>0.0007613241776981101</v>
+        <v>0.002372888289510905</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.420040231961053</v>
+        <v>1.243797528281561</v>
       </c>
       <c r="N24">
-        <v>0.3554230871908501</v>
+        <v>0.9060536747768708</v>
       </c>
       <c r="O24">
-        <v>1.951000361900554</v>
+        <v>1.677398773923272</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.959052213851578</v>
+        <v>0.6226480380424846</v>
       </c>
       <c r="C25">
-        <v>0.3854644213895142</v>
+        <v>0.1479151598713031</v>
       </c>
       <c r="D25">
-        <v>0.04120845410165686</v>
+        <v>0.01483889810295835</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.611214893118607</v>
+        <v>0.5160323409153449</v>
       </c>
       <c r="G25">
-        <v>0.0007690263270972931</v>
+        <v>0.002377536458338624</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.460672239296557</v>
+        <v>1.041297463449169</v>
       </c>
       <c r="N25">
-        <v>0.4218649753933086</v>
+        <v>0.9308586138364063</v>
       </c>
       <c r="O25">
-        <v>1.657705223780738</v>
+        <v>1.6309115594388</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_174/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_174/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.526438280374748</v>
+        <v>1.647762347672227</v>
       </c>
       <c r="C2">
-        <v>0.1308624274661554</v>
+        <v>0.3350438758344012</v>
       </c>
       <c r="D2">
-        <v>0.01287503673997747</v>
+        <v>0.0353953948149055</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5010524358228281</v>
+        <v>0.5297172493314264</v>
       </c>
       <c r="G2">
-        <v>0.002381241494065362</v>
+        <v>0.0007749011039370928</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8942543127321727</v>
+        <v>2.810732936334276</v>
       </c>
       <c r="N2">
-        <v>0.9506348847387542</v>
+        <v>0.4747496259668793</v>
       </c>
       <c r="O2">
-        <v>1.600791911241117</v>
+        <v>1.457398035880516</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4610702097428714</v>
+        <v>1.436786315023454</v>
       </c>
       <c r="C3">
-        <v>0.1191976723034145</v>
+        <v>0.3006173965016643</v>
       </c>
       <c r="D3">
-        <v>0.01153341097746363</v>
+        <v>0.03143220758699528</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.491684243643391</v>
+        <v>0.4770064254143023</v>
       </c>
       <c r="G3">
-        <v>0.002383930257053685</v>
+        <v>0.0007790268570197648</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7957442636169958</v>
+        <v>2.393867648078285</v>
       </c>
       <c r="N3">
-        <v>0.9649793628531853</v>
+        <v>0.5128602702580594</v>
       </c>
       <c r="O3">
-        <v>1.582920526096558</v>
+        <v>1.329680829487529</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4208571702748998</v>
+        <v>1.307162443776178</v>
       </c>
       <c r="C4">
-        <v>0.1119834880409201</v>
+        <v>0.2793606536940985</v>
       </c>
       <c r="D4">
-        <v>0.01070450451419447</v>
+        <v>0.02898732172925378</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4863168043954573</v>
+        <v>0.4457216127397459</v>
       </c>
       <c r="G4">
-        <v>0.002385669384506046</v>
+        <v>0.0007816361255562993</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7357780737209509</v>
+        <v>2.14659508593914</v>
       </c>
       <c r="N4">
-        <v>0.9742509767348864</v>
+        <v>0.5373189142970833</v>
       </c>
       <c r="O4">
-        <v>1.573194046176042</v>
+        <v>1.25472002686223</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4044517980485693</v>
+        <v>1.25430804694858</v>
       </c>
       <c r="C5">
-        <v>0.1090308246653251</v>
+        <v>0.2706694391852267</v>
       </c>
       <c r="D5">
-        <v>0.01036545166886782</v>
+        <v>0.02798815251350106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4842260434287695</v>
+        <v>0.4332220686269892</v>
       </c>
       <c r="G5">
-        <v>0.002386400346174901</v>
+        <v>0.0007827191825733072</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7114660064116691</v>
+        <v>2.047641762896063</v>
       </c>
       <c r="N5">
-        <v>0.9781458140287889</v>
+        <v>0.547543553676201</v>
       </c>
       <c r="O5">
-        <v>1.569543088703767</v>
+        <v>1.224973827237847</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4017266289700387</v>
+        <v>1.245529399779372</v>
       </c>
       <c r="C6">
-        <v>0.1085397697978863</v>
+        <v>0.2692245458791263</v>
       </c>
       <c r="D6">
-        <v>0.01030907647357537</v>
+        <v>0.02782206912893059</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4838846971401409</v>
+        <v>0.4311609621725694</v>
       </c>
       <c r="G6">
-        <v>0.002386523067792691</v>
+        <v>0.0007829002343410774</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7074363620614861</v>
+        <v>2.031310215146064</v>
       </c>
       <c r="N6">
-        <v>0.978799586804378</v>
+        <v>0.5492566598606334</v>
       </c>
       <c r="O6">
-        <v>1.568955710344113</v>
+        <v>1.220080952837748</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4206359940837672</v>
+        <v>1.306449772758782</v>
       </c>
       <c r="C7">
-        <v>0.1119437189925492</v>
+        <v>0.2792435569674581</v>
       </c>
       <c r="D7">
-        <v>0.01069993702296301</v>
+        <v>0.02897385813142961</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4862882171652529</v>
+        <v>0.4455520585408053</v>
       </c>
       <c r="G7">
-        <v>0.002385679152366921</v>
+        <v>0.0007816506512508231</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7354496957839558</v>
+        <v>2.145253682133699</v>
       </c>
       <c r="N7">
-        <v>0.9743030320023927</v>
+        <v>0.5374557755943652</v>
       </c>
       <c r="O7">
-        <v>1.573143543212893</v>
+        <v>1.254315703436134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5039159299834353</v>
+        <v>1.575028743108533</v>
       </c>
       <c r="C8">
-        <v>0.1268513516838539</v>
+        <v>0.3231989138801055</v>
       </c>
       <c r="D8">
-        <v>0.01241352705842047</v>
+        <v>0.03403128852517057</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4977423119142372</v>
+        <v>0.5113045255296385</v>
       </c>
       <c r="G8">
-        <v>0.002382150312440795</v>
+        <v>0.0007763082848019739</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8601766037815253</v>
+        <v>2.664954065864848</v>
       </c>
       <c r="N8">
-        <v>0.9554844827540165</v>
+        <v>0.4876651118461748</v>
       </c>
       <c r="O8">
-        <v>1.594370621745384</v>
+        <v>1.412600517490006</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6665789188658664</v>
+        <v>2.101543673924596</v>
       </c>
       <c r="C9">
-        <v>0.1556632325266776</v>
+        <v>0.4083964826102147</v>
       </c>
       <c r="D9">
-        <v>0.01573205078423001</v>
+        <v>0.04385611848105953</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5232675484836307</v>
+        <v>0.6499107688971577</v>
       </c>
       <c r="G9">
-        <v>0.002375927017822846</v>
+        <v>0.000766402770695638</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.109171365554417</v>
+        <v>3.773244580557005</v>
       </c>
       <c r="N9">
-        <v>0.9222678589030942</v>
+        <v>0.3988395760552059</v>
       </c>
       <c r="O9">
-        <v>1.64592963928547</v>
+        <v>1.753822388727201</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7856502145729678</v>
+        <v>2.48895987631596</v>
       </c>
       <c r="C10">
-        <v>0.1765631394149523</v>
+        <v>0.4702669248427753</v>
       </c>
       <c r="D10">
-        <v>0.01814352762990268</v>
+        <v>0.05101362140106858</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5439076343446061</v>
+        <v>0.7593325845334391</v>
       </c>
       <c r="G10">
-        <v>0.002371775023741804</v>
+        <v>0.0007594206915400288</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.295211018265832</v>
+        <v>4.67745745531758</v>
       </c>
       <c r="N10">
-        <v>0.9001166180872318</v>
+        <v>0.3395692583896377</v>
       </c>
       <c r="O10">
-        <v>1.689929551283853</v>
+        <v>2.028552428067542</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8397157227526577</v>
+        <v>2.665461399663116</v>
       </c>
       <c r="C11">
-        <v>0.186010594612469</v>
+        <v>0.4982121178640284</v>
       </c>
       <c r="D11">
-        <v>0.01923455487974479</v>
+        <v>0.0542545130431904</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5537112737428345</v>
+        <v>0.8111919376132164</v>
       </c>
       <c r="G11">
-        <v>0.002369976470300006</v>
+        <v>0.0007562941395873107</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.380612776636013</v>
+        <v>5.119285730129761</v>
       </c>
       <c r="N11">
-        <v>0.8905299617670472</v>
+        <v>0.3140557842775316</v>
       </c>
       <c r="O11">
-        <v>1.71128933064179</v>
+        <v>2.160097897211045</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8601735069462961</v>
+        <v>2.732342487160395</v>
       </c>
       <c r="C12">
-        <v>0.1895792400424341</v>
+        <v>0.5087595287453723</v>
       </c>
       <c r="D12">
-        <v>0.01964681623623221</v>
+        <v>0.05547926653292024</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5574835266775438</v>
+        <v>0.8311709932246742</v>
       </c>
       <c r="G12">
-        <v>0.002369308304025139</v>
+        <v>0.0007551158430425824</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.41307062571066</v>
+        <v>5.292231109096704</v>
       </c>
       <c r="N12">
-        <v>0.886970359768263</v>
+        <v>0.3046165523676194</v>
       </c>
       <c r="O12">
-        <v>1.719572010614456</v>
+        <v>2.210985876808905</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8557682719387003</v>
+        <v>2.717936450475975</v>
       </c>
       <c r="C13">
-        <v>0.1888110685693505</v>
+        <v>0.5064896265940035</v>
       </c>
       <c r="D13">
-        <v>0.01955806828996742</v>
+        <v>0.05521561210964165</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5566684397977752</v>
+        <v>0.826852250699261</v>
       </c>
       <c r="G13">
-        <v>0.002369451632553928</v>
+        <v>0.0007553693855891361</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.406074881060292</v>
+        <v>5.25470968019259</v>
       </c>
       <c r="N13">
-        <v>0.8877338382147215</v>
+        <v>0.3066393486683729</v>
       </c>
       <c r="O13">
-        <v>1.717779535564603</v>
+        <v>2.199976168271974</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8413991173916884</v>
+        <v>2.670962849848422</v>
       </c>
       <c r="C14">
-        <v>0.1863043691544704</v>
+        <v>0.4990806009538176</v>
       </c>
       <c r="D14">
-        <v>0.01926848981325691</v>
+        <v>0.05435532681580924</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.55402041883778</v>
+        <v>0.812828531822106</v>
       </c>
       <c r="G14">
-        <v>0.002369921241409458</v>
+        <v>0.0007561970966032683</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.383280695875001</v>
+        <v>5.133392638483798</v>
       </c>
       <c r="N14">
-        <v>0.8902356940071279</v>
+        <v>0.3132746778537197</v>
       </c>
       <c r="O14">
-        <v>1.711966854412282</v>
+        <v>2.164262132183524</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8325955221422987</v>
+        <v>2.642195973982268</v>
       </c>
       <c r="C15">
-        <v>0.1847677762061153</v>
+        <v>0.4945376031464832</v>
       </c>
       <c r="D15">
-        <v>0.01909099825924443</v>
+        <v>0.05382803910346468</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5524062280578192</v>
+        <v>0.8042843490109988</v>
       </c>
       <c r="G15">
-        <v>0.002370210569519703</v>
+        <v>0.0007567047814444398</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.36933418854187</v>
+        <v>5.059859588185034</v>
       </c>
       <c r="N15">
-        <v>0.8917773601788497</v>
+        <v>0.3173683678732253</v>
       </c>
       <c r="O15">
-        <v>1.708431736950303</v>
+        <v>2.14253037990548</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.782114780723191</v>
+        <v>2.477430977977065</v>
       </c>
       <c r="C16">
-        <v>0.1759444951869114</v>
+        <v>0.4684361482894985</v>
       </c>
       <c r="D16">
-        <v>0.01807210389856095</v>
+        <v>0.05080149259386246</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.543275302203952</v>
+        <v>0.75598878344951</v>
       </c>
       <c r="G16">
-        <v>0.002371894373051494</v>
+        <v>0.0007596258985654996</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.289645940334196</v>
+        <v>4.64929543899936</v>
       </c>
       <c r="N16">
-        <v>0.900753005646731</v>
+        <v>0.3412669384239102</v>
       </c>
       <c r="O16">
-        <v>1.6885607635611</v>
+        <v>2.02009849339268</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7511198687880665</v>
+        <v>2.376425806057568</v>
       </c>
       <c r="C17">
-        <v>0.170516133836685</v>
+        <v>0.4523688828426486</v>
       </c>
       <c r="D17">
-        <v>0.01744549653226812</v>
+        <v>0.04894074428520412</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5377800753495023</v>
+        <v>0.7269222449663317</v>
       </c>
       <c r="G17">
-        <v>0.002372950390256193</v>
+        <v>0.0007614296639798531</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.240962369530763</v>
+        <v>4.406021591255339</v>
       </c>
       <c r="N17">
-        <v>0.9063849194050526</v>
+        <v>0.3563085572543834</v>
       </c>
       <c r="O17">
-        <v>1.676715455808932</v>
+        <v>1.946759768416712</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7332830148146172</v>
+        <v>2.318354954749793</v>
       </c>
       <c r="C18">
-        <v>0.1673882510199576</v>
+        <v>0.4431090640422894</v>
       </c>
       <c r="D18">
-        <v>0.01708452877205957</v>
+        <v>0.04786909691949148</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5346583532715101</v>
+        <v>0.7103971930688857</v>
       </c>
       <c r="G18">
-        <v>0.002373566278302244</v>
+        <v>0.0007624719173795359</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.213033036409897</v>
+        <v>4.268875538541067</v>
       </c>
       <c r="N18">
-        <v>0.9096703618656896</v>
+        <v>0.3650955874579402</v>
       </c>
       <c r="O18">
-        <v>1.670028795871957</v>
+        <v>1.905186860591101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7272421840094694</v>
+        <v>2.298697162983103</v>
       </c>
       <c r="C19">
-        <v>0.166328244416718</v>
+        <v>0.4399708463560046</v>
       </c>
       <c r="D19">
-        <v>0.01696221603710768</v>
+        <v>0.04750602402993565</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5336080804839298</v>
+        <v>0.7048341131213078</v>
       </c>
       <c r="G19">
-        <v>0.002373776268419558</v>
+        <v>0.0007628256667218065</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.203588824890176</v>
+        <v>4.222884938026439</v>
       </c>
       <c r="N19">
-        <v>0.910790670844932</v>
+        <v>0.3680935901311493</v>
       </c>
       <c r="O19">
-        <v>1.667786496948622</v>
+        <v>1.891212025877593</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7544203115394339</v>
+        <v>2.387175374009189</v>
       </c>
       <c r="C20">
-        <v>0.1710945771159231</v>
+        <v>0.4540812070055438</v>
       </c>
       <c r="D20">
-        <v>0.01751225810171775</v>
+        <v>0.04913897037335602</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5383610148592055</v>
+        <v>0.7299961444259395</v>
       </c>
       <c r="G20">
-        <v>0.002372837096885726</v>
+        <v>0.000761237165612114</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.246137298429446</v>
+        <v>4.431622995456749</v>
       </c>
       <c r="N20">
-        <v>0.9057806185464372</v>
+        <v>0.3546932316688078</v>
       </c>
       <c r="O20">
-        <v>1.677963315454122</v>
+        <v>1.954502829581742</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8456201205528373</v>
+        <v>2.684758919448427</v>
       </c>
       <c r="C21">
-        <v>0.1870408912570554</v>
+        <v>0.5012578167980166</v>
       </c>
       <c r="D21">
-        <v>0.01935357033553942</v>
+        <v>0.05460808473517176</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5547965811442879</v>
+        <v>0.8169380207711328</v>
       </c>
       <c r="G21">
-        <v>0.002369782956091316</v>
+        <v>0.000755953837588484</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.389972638835104</v>
+        <v>5.168861661421204</v>
       </c>
       <c r="N21">
-        <v>0.8894989191855736</v>
+        <v>0.311319576382953</v>
       </c>
       <c r="O21">
-        <v>1.713668901942867</v>
+        <v>2.174721914346776</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9051326976168639</v>
+        <v>2.879501647118957</v>
       </c>
       <c r="C22">
-        <v>0.1974107230043387</v>
+        <v>0.5318827147665388</v>
       </c>
       <c r="D22">
-        <v>0.02055179077664349</v>
+        <v>0.05816761078058619</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5658870071409581</v>
+        <v>0.8757714462270343</v>
       </c>
       <c r="G22">
-        <v>0.002367862099375867</v>
+        <v>0.0007525329285603212</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.484668914750756</v>
+        <v>5.684412400744762</v>
       </c>
       <c r="N22">
-        <v>0.8792698202784131</v>
+        <v>0.2842744239943329</v>
       </c>
       <c r="O22">
-        <v>1.738136918276723</v>
+        <v>2.324986707032934</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8733785023368341</v>
+        <v>2.775539691064978</v>
       </c>
       <c r="C23">
-        <v>0.191880996609342</v>
+        <v>0.5155593185555745</v>
       </c>
       <c r="D23">
-        <v>0.019912761896272</v>
+        <v>0.05626933551766911</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.559935839400822</v>
+        <v>0.8441714480240847</v>
       </c>
       <c r="G23">
-        <v>0.002368880437405971</v>
+        <v>0.0007543563782816407</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.434062047371782</v>
+        <v>5.405649691151496</v>
       </c>
       <c r="N23">
-        <v>0.8846915273605269</v>
+        <v>0.2985849834141661</v>
       </c>
       <c r="O23">
-        <v>1.724973959155875</v>
+        <v>2.244159239858448</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7529282356848626</v>
+        <v>2.382315499926676</v>
       </c>
       <c r="C24">
-        <v>0.1708330848337312</v>
+        <v>0.4533071350156206</v>
       </c>
       <c r="D24">
-        <v>0.01748207744591923</v>
+        <v>0.04904935818679235</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5380982551433675</v>
+        <v>0.7286058591601403</v>
       </c>
       <c r="G24">
-        <v>0.002372888289510905</v>
+        <v>0.0007613241776701941</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.243797528281561</v>
+        <v>4.420040231961039</v>
       </c>
       <c r="N24">
-        <v>0.9060536747768708</v>
+        <v>0.3554230871909212</v>
       </c>
       <c r="O24">
-        <v>1.677398773923272</v>
+        <v>1.951000361900583</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6226480380424846</v>
+        <v>1.959052213851606</v>
       </c>
       <c r="C25">
-        <v>0.1479151598713031</v>
+        <v>0.3854644213895995</v>
       </c>
       <c r="D25">
-        <v>0.01483889810295835</v>
+        <v>0.04120845410209739</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5160323409153449</v>
+        <v>0.6112148931185928</v>
       </c>
       <c r="G25">
-        <v>0.002377536458338624</v>
+        <v>0.000769026327068223</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.041297463449169</v>
+        <v>3.460672239296557</v>
       </c>
       <c r="N25">
-        <v>0.9308586138364063</v>
+        <v>0.4218649753933086</v>
       </c>
       <c r="O25">
-        <v>1.6309115594388</v>
+        <v>1.657705223780795</v>
       </c>
     </row>
   </sheetData>
